--- a/web-project/public/pfc_project_update_data_2.xlsx
+++ b/web-project/public/pfc_project_update_data_2.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Techmaster\web-project\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81866B08-DB64-4771-9025-F08FF0A04955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ECAF4A-7C24-49AB-9E13-1B7704E06FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93450A70-3400-49CE-944F-CD4AC0D9D9C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{93450A70-3400-49CE-944F-CD4AC0D9D9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
     <sheet name="categories" sheetId="3" r:id="rId2"/>
     <sheet name="products" sheetId="2" r:id="rId3"/>
     <sheet name="unit-product" sheetId="1" r:id="rId4"/>
+    <sheet name="promotion" sheetId="5" r:id="rId5"/>
+    <sheet name="promotion-unit" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="139">
   <si>
     <t>productId</t>
   </si>
@@ -146,21 +148,6 @@
     <t>desc</t>
   </si>
   <si>
-    <t>GÀ GIÒN KHÔNG XƯƠNG</t>
-  </si>
-  <si>
-    <t>GÀ GIÒN CAY</t>
-  </si>
-  <si>
-    <t>GÀ GIÒN KHÔNG CAY</t>
-  </si>
-  <si>
-    <t>HAMBURGER</t>
-  </si>
-  <si>
-    <t>MÒN ĂN KÈM</t>
-  </si>
-  <si>
     <t>5 MIẾNG GÀ GIÒN KHÔNG XƯƠNG</t>
   </si>
   <si>
@@ -392,14 +379,89 @@
     <t>Chay cau SQL Insert PRODUCT_UNIT table sheet Unit-Product</t>
   </si>
   <si>
-    <t>THỨC UỐNG - TRÁNG MIỆNG</t>
+    <t>Hamburger</t>
+  </si>
+  <si>
+    <t>Gà giòn cay</t>
+  </si>
+  <si>
+    <t>Gà giòn không cay</t>
+  </si>
+  <si>
+    <t>Gà giòn không xương</t>
+  </si>
+  <si>
+    <t>Món ăn kèm</t>
+  </si>
+  <si>
+    <t>Thức uống - Tráng miệng</t>
+  </si>
+  <si>
+    <t>MUA 1 TẶNG 1 - 2 MIẾNG GÀ</t>
+  </si>
+  <si>
+    <t>/detail-menu/khuyen-mai/2-tang-2.jpg</t>
+  </si>
+  <si>
+    <t>MUA 1 TẶNG 1 - 3 MIẾNG GÀ</t>
+  </si>
+  <si>
+    <t>/detail-menu/khuyen-mai/3-tang-3.jpg</t>
+  </si>
+  <si>
+    <t>Mua Combo 2 Gà Giòn + Nước tặng 2 Gà Giòn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mua 3 Gà giòn + Nước tặng 3 Gà Giòn </t>
+  </si>
+  <si>
+    <t>Món lẻ</t>
+  </si>
+  <si>
+    <t>/main-menu/mon-le.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MIẾNG GÀ GIÒN KHÔNG CAY </t>
+  </si>
+  <si>
+    <t>/detail-menu/mon-le/1mieng-k-cay.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MIẾNG GÀ GIÒN CAY </t>
+  </si>
+  <si>
+    <t>/detail-menu/mon-le/1mieng-cay.png</t>
+  </si>
+  <si>
+    <t>/detail-menu/mon-le/khoai-tay-chien.png</t>
+  </si>
+  <si>
+    <t>/detail-menu/mon-le/burger_ga_1.png</t>
+  </si>
+  <si>
+    <t>/detail-menu/mon-le/snack-ca.png</t>
+  </si>
+  <si>
+    <t>/detail-menu/mon-le/snack-muc.png</t>
+  </si>
+  <si>
+    <t>Gà giòn Cajun tươi mới được ướp với công thức gia vị Louisiana cay tẩm bột thủ công và rán chín cùng lớp phủ giòn tan</t>
+  </si>
+  <si>
+    <t>Gà giòn Cajun tươi mới được ướp với công thức gia vị Louisiana không cay, tẩm bột thủ công và rán chín cùng lớp phủ giòn tan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Burger Gà </t>
+  </si>
+  <si>
+    <t>Khuyến mại</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +502,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,13 +573,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -833,90 +904,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E52624-B9CE-40AD-83DA-8D100B23E3B6}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -929,23 +1000,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A654801-F890-465C-B545-F3A335D99422}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -956,82 +1027,82 @@
         <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E2" t="str">
         <f>Config!$B$1&amp;D2</f>
         <v>http://phungmaianh.ddns.net/pfc/image/main-menu/burger.png</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F7" si="0">"Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'" &amp; B2 &amp; "','" &amp; E2 &amp; "','Y'," &amp; C2 &amp; ");"</f>
-        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'HAMBURGER','http://phungmaianh.ddns.net/pfc/image/main-menu/burger.png','Y',4);</v>
+        <f>"Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'" &amp; B2 &amp; "','" &amp; E2 &amp; "','Y'," &amp; C2 &amp; ");"</f>
+        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Hamburger','http://phungmaianh.ddns.net/pfc/image/main-menu/burger.png','Y',4);</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>"Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval," &amp; A2 &amp; ",'VN','" &amp; B2 &amp; "');"</f>
-        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,1,'VN','HAMBURGER');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,134,'VN','Hamburger');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E3" t="str">
         <f>Config!$B$1&amp;D3</f>
         <v>http://phungmaianh.ddns.net/pfc/image/main-menu/menu-gagioncay.png</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'GÀ GIÒN CAY','http://phungmaianh.ddns.net/pfc/image/main-menu/menu-gagioncay.png','Y',2);</v>
+        <f t="shared" ref="F3:F7" si="0">"Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'" &amp; B3 &amp; "','" &amp; E3 &amp; "','Y'," &amp; C3 &amp; ");"</f>
+        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Gà giòn cay','http://phungmaianh.ddns.net/pfc/image/main-menu/menu-gagioncay.png','Y',2);</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G7" si="1">"Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval," &amp; A3 &amp; ",'VN','" &amp; B3 &amp; "');"</f>
-        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,2,'VN','GÀ GIÒN CAY');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,135,'VN','Gà giòn cay');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E4" t="str">
         <f>Config!$B$1&amp;D4</f>
@@ -1039,25 +1110,25 @@
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'GÀ GIÒN KHÔNG CAY','http://phungmaianh.ddns.net/pfc/image/main-menu/menu-gakcay.png','Y',3);</v>
+        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Gà giòn không cay','http://phungmaianh.ddns.net/pfc/image/main-menu/menu-gakcay.png','Y',3);</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,3,'VN','GÀ GIÒN KHÔNG CAY');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,136,'VN','Gà giòn không cay');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E5" t="str">
         <f>Config!$B$1&amp;D5</f>
@@ -1065,25 +1136,25 @@
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'GÀ GIÒN KHÔNG XƯƠNG','http://phungmaianh.ddns.net/pfc/image/main-menu/menu_gakhongxuong.png','Y',1);</v>
+        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Gà giòn không xương','http://phungmaianh.ddns.net/pfc/image/main-menu/menu_gakhongxuong.png','Y',1);</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,4,'VN','GÀ GIÒN KHÔNG XƯƠNG');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,137,'VN','Gà giòn không xương');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E6" t="str">
         <f>Config!$B$1&amp;D6</f>
@@ -1091,16 +1162,16 @@
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'MÒN ĂN KÈM','http://phungmaianh.ddns.net/pfc/image/main-menu/mon-an-kem.png','Y',5);</v>
+        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Món ăn kèm','http://phungmaianh.ddns.net/pfc/image/main-menu/mon-an-kem.png','Y',5);</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,5,'VN','MÒN ĂN KÈM');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,138,'VN','Món ăn kèm');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>118</v>
@@ -1109,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E7" t="str">
         <f>Config!$B$1&amp;D7</f>
@@ -1117,11 +1188,56 @@
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'THỨC UỐNG - TRÁNG MIỆNG','http://phungmaianh.ddns.net/pfc/image/main-menu/trang-mieng.png','Y',7);</v>
+        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Thức uống - Tráng miệng','http://phungmaianh.ddns.net/pfc/image/main-menu/trang-mieng.png','Y',7);</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,6,'VN','THỨC UỐNG - TRÁNG MIỆNG');</v>
+        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,139,'VN','Thức uống - Tráng miệng');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="str">
+        <f>Config!$B$1&amp;D8</f>
+        <v>http://phungmaianh.ddns.net/pfc/image/main-menu/mon-le.png</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" ref="F8:F9" si="2">"Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'" &amp; B8 &amp; "','" &amp; E8 &amp; "','Y'," &amp; C8 &amp; ");"</f>
+        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Món lẻ','http://phungmaianh.ddns.net/pfc/image/main-menu/mon-le.png','Y',6);</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ref="G8:G9" si="3">"Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval," &amp; A8 &amp; ",'VN','" &amp; B8 &amp; "');"</f>
+        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,140,'VN','Món lẻ');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>293</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Khuyến mại','','Y',-1);</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,293,'VN','Khuyến mại');</v>
       </c>
     </row>
   </sheetData>
@@ -1132,24 +1248,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA67B4D5-716A-4309-8076-DE626F25942E}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" style="2" customWidth="1"/>
     <col min="9" max="9" width="31" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.81640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1166,31 +1282,31 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B2" s="5">
         <f>categories!$A$5</f>
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1199,7 +1315,7 @@
         <v>75000</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G2" t="str">
         <f>Config!$B$1&amp;F2</f>
@@ -1207,27 +1323,27 @@
       </c>
       <c r="H2" s="2" t="str">
         <f>"Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval," &amp; B2 &amp; ",'" &amp; C2 &amp; "','" &amp; G2 &amp; "','Y'," &amp; D2 &amp; ");"</f>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,4,'5 MIẾNG GÀ GIÒN KHÔNG XƯƠNG','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-khong-xuong/5pc-ga-gion-k-xuong.png','Y',1);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,137,'5 MIẾNG GÀ GIÒN KHÔNG XƯƠNG','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-khong-xuong/5pc-ga-gion-k-xuong.png','Y',1);</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>"Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval," &amp; A2 &amp; ",'VN','BRIEF','" &amp; C2 &amp; "');"</f>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,13,'VN','BRIEF','5 MIẾNG GÀ GIÒN KHÔNG XƯƠNG');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,148,'VN','BRIEF','5 MIẾNG GÀ GIÒN KHÔNG XƯƠNG');</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>"Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval," &amp; A2 &amp; "," &amp; E2 &amp; ",'VND');"</f>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,13,75000,'VND');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,148,75000,'VND');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B3" s="5">
         <f>categories!$A$5</f>
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1236,35 +1352,35 @@
         <v>69000</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G3" t="str">
         <f>Config!$B$1&amp;F3</f>
         <v>http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-khong-xuong/combo-3pc-ga-gion-k-xuong.jpg</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H26" si="0">"Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval," &amp; B3 &amp; ",'" &amp; C3 &amp; "','" &amp; G3 &amp; "','Y'," &amp; D3 &amp; ");"</f>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,4,'COMBO GÀ GIÒN KHÔNG XƯƠNG 3 MIẾNG','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-khong-xuong/combo-3pc-ga-gion-k-xuong.jpg','Y',2);</v>
+        <f t="shared" ref="H3:H32" si="0">"Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval," &amp; B3 &amp; ",'" &amp; C3 &amp; "','" &amp; G3 &amp; "','Y'," &amp; D3 &amp; ");"</f>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,137,'COMBO GÀ GIÒN KHÔNG XƯƠNG 3 MIẾNG','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-khong-xuong/combo-3pc-ga-gion-k-xuong.jpg','Y',2);</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I26" si="1">"Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval," &amp; A3 &amp; ",'VN','BRIEF','" &amp; C3 &amp; "');"</f>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,14,'VN','BRIEF','COMBO GÀ GIÒN KHÔNG XƯƠNG 3 MIẾNG');</v>
+        <f t="shared" ref="I3:I32" si="1">"Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval," &amp; A3 &amp; ",'VN','BRIEF','" &amp; C3 &amp; "');"</f>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,149,'VN','BRIEF','COMBO GÀ GIÒN KHÔNG XƯƠNG 3 MIẾNG');</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J26" si="2">"Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval," &amp; A3 &amp; "," &amp; E3 &amp; ",'VND');"</f>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,14,69000,'VND');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J3:J32" si="2">"Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval," &amp; A3 &amp; "," &amp; E3 &amp; ",'VND');"</f>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,149,69000,'VND');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B4" s="5">
         <f>categories!$A$5</f>
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1273,7 +1389,7 @@
         <v>89000</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G4" t="str">
         <f>Config!$B$1&amp;F4</f>
@@ -1281,27 +1397,27 @@
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,4,'COMBO GÀ GIÒN KHÔNG XƯƠNG 5 MIẾNG','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-khong-xuong/combo-5pc-ga-gion-k-xuong.jpg','Y',3);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,137,'COMBO GÀ GIÒN KHÔNG XƯƠNG 5 MIẾNG','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-khong-xuong/combo-5pc-ga-gion-k-xuong.jpg','Y',3);</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,15,'VN','BRIEF','COMBO GÀ GIÒN KHÔNG XƯƠNG 5 MIẾNG');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,150,'VN','BRIEF','COMBO GÀ GIÒN KHÔNG XƯƠNG 5 MIẾNG');</v>
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,15,89000,'VND');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,150,89000,'VND');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5">
         <f>categories!$A$3</f>
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1310,7 +1426,7 @@
         <v>84000</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G5" t="str">
         <f>Config!$B$1&amp;F5</f>
@@ -1318,27 +1434,27 @@
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,2,'COMBO GÀ GIÒN CAY (2 MIẾNG) ','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-cay/gacay_combo2mieng.jpg','Y',1);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,135,'COMBO GÀ GIÒN CAY (2 MIẾNG) ','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-cay/gacay_combo2mieng.jpg','Y',1);</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,16,'VN','BRIEF','COMBO GÀ GIÒN CAY (2 MIẾNG) ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,151,'VN','BRIEF','COMBO GÀ GIÒN CAY (2 MIẾNG) ');</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,16,84000,'VND');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,151,84000,'VND');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5">
         <f>categories!$A$3</f>
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1347,7 +1463,7 @@
         <v>115000</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G6" t="str">
         <f>Config!$B$1&amp;F6</f>
@@ -1355,27 +1471,27 @@
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,2,'COMBO GÀ GIÒN CAY (3 MIẾNG)','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-cay/gacay_combo3mieng_1.jpg','Y',2);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,135,'COMBO GÀ GIÒN CAY (3 MIẾNG)','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-cay/gacay_combo3mieng_1.jpg','Y',2);</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,17,'VN','BRIEF','COMBO GÀ GIÒN CAY (3 MIẾNG)');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,152,'VN','BRIEF','COMBO GÀ GIÒN CAY (3 MIẾNG)');</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,17,115000,'VND');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,152,115000,'VND');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="B7" s="5">
         <f>categories!$A$4</f>
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1384,7 +1500,7 @@
         <v>84000</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G7" t="str">
         <f>Config!$B$1&amp;F7</f>
@@ -1392,27 +1508,27 @@
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,3,'COMBO GÀ GIÒN KHÔNG CAY (2 MIẾNG) ','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-k-cay/gakocay_combo2mieng.jpg','Y',1);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,136,'COMBO GÀ GIÒN KHÔNG CAY (2 MIẾNG) ','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-k-cay/gakocay_combo2mieng.jpg','Y',1);</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,18,'VN','BRIEF','COMBO GÀ GIÒN KHÔNG CAY (2 MIẾNG) ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,153,'VN','BRIEF','COMBO GÀ GIÒN KHÔNG CAY (2 MIẾNG) ');</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,18,84000,'VND');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,153,84000,'VND');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="B8" s="5">
         <f>categories!$A$4</f>
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1421,7 +1537,7 @@
         <v>115000</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G8" t="str">
         <f>Config!$B$1&amp;F8</f>
@@ -1429,27 +1545,27 @@
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,3,'COMBO GÀ GIÒN KHÔNG CAY (3 MIẾNG) ','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-k-cay/gakocay_combo3mieng.jpg','Y',2);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,136,'COMBO GÀ GIÒN KHÔNG CAY (3 MIẾNG) ','http://phungmaianh.ddns.net/pfc/image/detail-menu/ga-gion-k-cay/gakocay_combo3mieng.jpg','Y',2);</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,19,'VN','BRIEF','COMBO GÀ GIÒN KHÔNG CAY (3 MIẾNG) ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,154,'VN','BRIEF','COMBO GÀ GIÒN KHÔNG CAY (3 MIẾNG) ');</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,19,115000,'VND');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,154,115000,'VND');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="B9" s="5">
         <f>categories!$A$2</f>
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1458,7 +1574,7 @@
         <v>72000</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G9" t="str">
         <f>Config!$B$1&amp;F9</f>
@@ -1466,27 +1582,27 @@
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,1,'COMBO BURGER GÀ ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/combo-burger-ga.png','Y',1);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,134,'COMBO BURGER GÀ ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/combo-burger-ga.png','Y',1);</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,20,'VN','BRIEF','COMBO BURGER GÀ ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,155,'VN','BRIEF','COMBO BURGER GÀ ');</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,20,72000,'VND');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,155,72000,'VND');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="B10" s="5">
         <f>categories!$A$2</f>
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1495,7 +1611,7 @@
         <v>54000</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G10" t="str">
         <f>Config!$B$1&amp;F10</f>
@@ -1503,27 +1619,27 @@
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,1,'BURGER GÀ ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/burger_ga_1.png','Y',4);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,134,'BURGER GÀ ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/burger_ga_1.png','Y',4);</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,21,'VN','BRIEF','BURGER GÀ ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,156,'VN','BRIEF','BURGER GÀ ');</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,21,54000,'VND');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,156,54000,'VND');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="B11" s="5">
         <f>categories!$A$2</f>
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1532,7 +1648,7 @@
         <v>63000</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G11" t="str">
         <f>Config!$B$1&amp;F11</f>
@@ -1540,27 +1656,27 @@
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,1,'COMBO BURGER TÔM ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/combo-burger-tom.png','Y',2);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,134,'COMBO BURGER TÔM ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/combo-burger-tom.png','Y',2);</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,22,'VN','BRIEF','COMBO BURGER TÔM ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,157,'VN','BRIEF','COMBO BURGER TÔM ');</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,22,63000,'VND');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,157,63000,'VND');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B12" s="5">
         <f>categories!$A$2</f>
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1569,7 +1685,7 @@
         <v>42000</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G12" t="str">
         <f>Config!$B$1&amp;F12</f>
@@ -1577,27 +1693,27 @@
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,1,'BURGER TÔM ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/tom.png','Y',5);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,134,'BURGER TÔM ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/tom.png','Y',5);</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,23,'VN','BRIEF','BURGER TÔM ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,158,'VN','BRIEF','BURGER TÔM ');</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,23,42000,'VND');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,158,42000,'VND');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="B13" s="5">
         <f>categories!$A$2</f>
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1606,7 +1722,7 @@
         <v>72000</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G13" t="str">
         <f>Config!$B$1&amp;F13</f>
@@ -1614,27 +1730,27 @@
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,1,'COMBO BURGER CÁ CAJUN ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/combo-burger-cajun.png','Y',3);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,134,'COMBO BURGER CÁ CAJUN ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/combo-burger-cajun.png','Y',3);</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,24,'VN','BRIEF','COMBO BURGER CÁ CAJUN ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,159,'VN','BRIEF','COMBO BURGER CÁ CAJUN ');</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,24,72000,'VND');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,159,72000,'VND');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="B14" s="5">
         <f>categories!$A$2</f>
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1643,7 +1759,7 @@
         <v>45000</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G14" t="str">
         <f>Config!$B$1&amp;F14</f>
@@ -1651,27 +1767,27 @@
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,1,'BURGER CÁ CAJUN ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/ca.png','Y',6);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,134,'BURGER CÁ CAJUN ','http://phungmaianh.ddns.net/pfc/image/detail-menu/hamburger/ca.png','Y',6);</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,25,'VN','BRIEF','BURGER CÁ CAJUN ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,160,'VN','BRIEF','BURGER CÁ CAJUN ');</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,25,45000,'VND');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,160,45000,'VND');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="B15" s="5">
         <f>categories!$A$6</f>
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1680,7 +1796,7 @@
         <v>10000</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G15" t="str">
         <f>Config!$B$1&amp;F15</f>
@@ -1688,27 +1804,27 @@
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,5,'CƠM TRẮNG ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/rice.png','Y',1);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,138,'CƠM TRẮNG ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/rice.png','Y',1);</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,26,'VN','BRIEF','CƠM TRẮNG ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,161,'VN','BRIEF','CƠM TRẮNG ');</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,26,10000,'VND');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,161,10000,'VND');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="B16" s="5">
         <f>categories!$A$6</f>
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1717,7 +1833,7 @@
         <v>19000</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G16" t="str">
         <f>Config!$B$1&amp;F16</f>
@@ -1725,27 +1841,27 @@
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,5,'KHOAI TÂY NGHIỀN ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/khoai_tay_nghien.png','Y',2);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,138,'KHOAI TÂY NGHIỀN ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/khoai_tay_nghien.png','Y',2);</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,27,'VN','BRIEF','KHOAI TÂY NGHIỀN ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,162,'VN','BRIEF','KHOAI TÂY NGHIỀN ');</v>
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,27,19000,'VND');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,162,19000,'VND');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B17" s="5">
         <f>categories!$A$6</f>
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1754,7 +1870,7 @@
         <v>29000</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G17" t="str">
         <f>Config!$B$1&amp;F17</f>
@@ -1762,27 +1878,27 @@
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,5,'KHOAI TÂY CHIÊN ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/khoai-tay-chien.png','Y',3);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,138,'KHOAI TÂY CHIÊN ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/khoai-tay-chien.png','Y',3);</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,28,'VN','BRIEF','KHOAI TÂY CHIÊN ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,163,'VN','BRIEF','KHOAI TÂY CHIÊN ');</v>
       </c>
       <c r="J17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,28,29000,'VND');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,163,29000,'VND');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="B18" s="5">
         <f>categories!$A$6</f>
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1791,7 +1907,7 @@
         <v>10000</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G18" t="str">
         <f>Config!$B$1&amp;F18</f>
@@ -1799,27 +1915,27 @@
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,5,'CANH SÚP ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/soup.png','Y',4);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,138,'CANH SÚP ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/soup.png','Y',4);</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,29,'VN','BRIEF','CANH SÚP ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,164,'VN','BRIEF','CANH SÚP ');</v>
       </c>
       <c r="J18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,29,10000,'VND');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,164,10000,'VND');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="B19" s="5">
         <f>categories!$A$6</f>
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1828,7 +1944,7 @@
         <v>34000</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G19" t="str">
         <f>Config!$B$1&amp;F19</f>
@@ -1836,27 +1952,27 @@
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,5,'4 MIẾNG SNACK CÁ ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/snack-ca.png','Y',5);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,138,'4 MIẾNG SNACK CÁ ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/snack-ca.png','Y',5);</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,30,'VN','BRIEF','4 MIẾNG SNACK CÁ ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,165,'VN','BRIEF','4 MIẾNG SNACK CÁ ');</v>
       </c>
       <c r="J19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,30,34000,'VND');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,165,34000,'VND');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="B20" s="5">
         <f>categories!$A$6</f>
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -1865,7 +1981,7 @@
         <v>39000</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G20" t="str">
         <f>Config!$B$1&amp;F20</f>
@@ -1873,27 +1989,27 @@
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,5,'4 MIẾNG SNACK MỰC ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/snack-muc.png','Y',6);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,138,'4 MIẾNG SNACK MỰC ','http://phungmaianh.ddns.net/pfc/image/detail-menu/mon-an-kem/snack-muc.png','Y',6);</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,31,'VN','BRIEF','4 MIẾNG SNACK MỰC ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,166,'VN','BRIEF','4 MIẾNG SNACK MỰC ');</v>
       </c>
       <c r="J20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,31,39000,'VND');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,166,39000,'VND');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="B21" s="5">
         <f>categories!$A$7</f>
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1902,7 +2018,7 @@
         <v>21000</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G21" t="str">
         <f>Config!$B$1&amp;F21</f>
@@ -1910,27 +2026,27 @@
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,6,'BÁNH TART PHÔ MAI ','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/menu_dessert_cheesetart.png','Y',1);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,139,'BÁNH TART PHÔ MAI ','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/menu_dessert_cheesetart.png','Y',1);</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,32,'VN','BRIEF','BÁNH TART PHÔ MAI ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,167,'VN','BRIEF','BÁNH TART PHÔ MAI ');</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,32,21000,'VND');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,167,21000,'VND');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="B22" s="5">
         <f>categories!$A$7</f>
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1939,7 +2055,7 @@
         <v>19000</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G22" t="str">
         <f>Config!$B$1&amp;F22</f>
@@ -1947,27 +2063,27 @@
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,6,'COCA ','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/coca.png','Y',2);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,139,'COCA ','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/coca.png','Y',2);</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,33,'VN','BRIEF','COCA ');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,168,'VN','BRIEF','COCA ');</v>
       </c>
       <c r="J22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,33,19000,'VND');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,168,19000,'VND');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="B23" s="5">
         <f>categories!$A$7</f>
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1976,7 +2092,7 @@
         <v>19000</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G23" t="str">
         <f>Config!$B$1&amp;F23</f>
@@ -1984,27 +2100,27 @@
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,6,'SPRITE','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/sprite.png','Y',3);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,139,'SPRITE','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/sprite.png','Y',3);</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,34,'VN','BRIEF','SPRITE');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,169,'VN','BRIEF','SPRITE');</v>
       </c>
       <c r="J23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,34,19000,'VND');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,169,19000,'VND');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B24" s="5">
         <f>categories!$A$7</f>
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -2013,7 +2129,7 @@
         <v>19000</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G24" t="str">
         <f>Config!$B$1&amp;F24</f>
@@ -2021,27 +2137,27 @@
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,6,'FANTA','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/fanta.png','Y',4);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,139,'FANTA','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/fanta.png','Y',4);</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,35,'VN','BRIEF','FANTA');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,170,'VN','BRIEF','FANTA');</v>
       </c>
       <c r="J24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,35,19000,'VND');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,170,19000,'VND');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="B25" s="5">
         <f>categories!$A$7</f>
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2050,7 +2166,7 @@
         <v>19000</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G25" t="str">
         <f>Config!$B$1&amp;F25</f>
@@ -2058,27 +2174,27 @@
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,6,'DASANI','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/dasani.png','Y',5);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,139,'DASANI','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/dasani.png','Y',5);</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,36,'VN','BRIEF','DASANI');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,171,'VN','BRIEF','DASANI');</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,36,19000,'VND');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,171,19000,'VND');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="B26" s="5">
         <f>categories!$A$7</f>
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -2087,7 +2203,7 @@
         <v>20000</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G26" t="str">
         <f>Config!$B$1&amp;F26</f>
@@ -2095,15 +2211,279 @@
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,6,'MILO','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/milo.jpg','Y',6);</v>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,139,'MILO','http://phungmaianh.ddns.net/pfc/image/detail-menu/thuc-uong-trang-mieng/milo.jpg','Y',6);</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,37,'VN','BRIEF','MILO');</v>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,172,'VN','BRIEF','MILO');</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,37,20000,'VND');</v>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,172,20000,'VND');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>173</v>
+      </c>
+      <c r="B27" s="5">
+        <f>categories!$A$8</f>
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>36000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,140,'1 MIẾNG GÀ GIÒN KHÔNG CAY ','','Y',1);</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,173,'VN','BRIEF','1 MIẾNG GÀ GIÒN KHÔNG CAY ');</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,173,36000,'VND');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>174</v>
+      </c>
+      <c r="B28" s="5">
+        <f>categories!$A$8</f>
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>36000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,140,'1 MIẾNG GÀ GIÒN CAY ','','Y',2);</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,174,'VN','BRIEF','1 MIẾNG GÀ GIÒN CAY ');</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,174,36000,'VND');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>175</v>
+      </c>
+      <c r="B29" s="5">
+        <f>categories!$A$8</f>
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>29000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,140,'KHOAI TÂY CHIÊN ','','Y',3);</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,175,'VN','BRIEF','KHOAI TÂY CHIÊN ');</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,175,29000,'VND');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>176</v>
+      </c>
+      <c r="B30" s="5">
+        <f>categories!$A$8</f>
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>54000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,140,'BURGER GÀ ','','Y',4);</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,176,'VN','BRIEF','BURGER GÀ ');</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,176,54000,'VND');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>177</v>
+      </c>
+      <c r="B31" s="5">
+        <f>categories!$A$8</f>
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>34000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,140,'4 MIẾNG SNACK CÁ ','','Y',5);</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,177,'VN','BRIEF','4 MIẾNG SNACK CÁ ');</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,177,34000,'VND');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>178</v>
+      </c>
+      <c r="B32" s="5">
+        <f>categories!$A$8</f>
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>39000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,140,'4 MIẾNG SNACK MỰC ','','Y',6);</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,178,'VN','BRIEF','4 MIẾNG SNACK MỰC ');</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,178,39000,'VND');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>295</v>
+      </c>
+      <c r="B33" s="5">
+        <f>categories!$A$9</f>
+        <v>293</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>91000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f t="shared" ref="H33:H34" si="3">"Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval," &amp; B33 &amp; ",'" &amp; C33 &amp; "','" &amp; G33 &amp; "','Y'," &amp; D33 &amp; ");"</f>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,293,'MUA 1 TẶNG 1 - 2 MIẾNG GÀ','','Y',1);</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f t="shared" ref="I33:I34" si="4">"Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval," &amp; A33 &amp; ",'VN','BRIEF','" &amp; C33 &amp; "');"</f>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,295,'VN','BRIEF','MUA 1 TẶNG 1 - 2 MIẾNG GÀ');</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f t="shared" ref="J33:J34" si="5">"Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval," &amp; A33 &amp; "," &amp; E33 &amp; ",'VND');"</f>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,295,91000,'VND');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>296</v>
+      </c>
+      <c r="B34" s="5">
+        <f>categories!$A$9</f>
+        <v>293</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>127000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Insert into PRODUCT (ID,CATEGORY_ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,293,'MUA 1 TẶNG 1 - 3 MIẾNG GÀ','','Y',2);</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,296,'VN','BRIEF','MUA 1 TẶNG 1 - 3 MIẾNG GÀ');</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,296,127000,'VND');</v>
       </c>
     </row>
   </sheetData>
@@ -2114,21 +2494,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2E59FE-1C09-4F0B-BFC9-F354267AA205}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2139,13 +2519,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>products!$A$2</f>
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2155,13 +2535,13 @@
       </c>
       <c r="D2" s="2" t="str">
         <f>"Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval," &amp; A2 &amp; ",'VN','" &amp; C2 &amp; "', 'Y', " &amp; B2 &amp; ");"</f>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,13,'VN','5 miếng gà không xương', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,148,'VN','5 miếng gà không xương', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f>products!$A$2</f>
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2170,14 +2550,14 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D47" si="0">"Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval," &amp; A3 &amp; ",'VN','" &amp; C3 &amp; "', 'Y', " &amp; B3 &amp; ");"</f>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,13,'VN','1 chén sốt blackended/spicy mayo', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D3:D55" si="0">"Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval," &amp; A3 &amp; ",'VN','" &amp; C3 &amp; "', 'Y', " &amp; B3 &amp; ");"</f>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,148,'VN','1 chén sốt blackended/spicy mayo', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f>products!$A$3</f>
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2187,13 +2567,13 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,14,'VN','3 miếng gà giòn không xương', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,149,'VN','3 miếng gà giòn không xương', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f>products!$A$3</f>
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2203,13 +2583,13 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,14,'VN','1 phần bắp cải trộn (vừa)', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,149,'VN','1 phần bắp cải trộn (vừa)', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f>products!$A$3</f>
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2219,13 +2599,13 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,14,'VN','1 sốt chấm tự chọn (Blackened ranch/Spicy mayo) ', 'Y', 3);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,149,'VN','1 sốt chấm tự chọn (Blackened ranch/Spicy mayo) ', 'Y', 3);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f>products!$A$3</f>
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2235,13 +2615,13 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,14,'VN','1 coca', 'Y', 4);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,149,'VN','1 coca', 'Y', 4);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f>products!$A$4</f>
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2251,13 +2631,13 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,15,'VN','5 miếng gà giòn không xương', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,150,'VN','5 miếng gà giòn không xương', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f>products!$A$4</f>
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2267,13 +2647,13 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,15,'VN','1 phần bắp cải trộn (vừa)', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,150,'VN','1 phần bắp cải trộn (vừa)', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <f>products!$A$4</f>
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2283,13 +2663,13 @@
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,15,'VN','1 sốt chấm tự chọn (blackended ranch/ spicy mayo)', 'Y', 3);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,150,'VN','1 sốt chấm tự chọn (blackended ranch/ spicy mayo)', 'Y', 3);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f>products!$A$4</f>
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2299,13 +2679,13 @@
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,15,'VN','1 coca', 'Y', 4);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,150,'VN','1 coca', 'Y', 4);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>products!$A$5</f>
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2315,13 +2695,13 @@
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,16,'VN','2 miếng gà giòn cay', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,151,'VN','2 miếng gà giòn cay', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f>products!$A$5</f>
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2331,13 +2711,13 @@
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,16,'VN','1 khoai tây chiên (vừa)', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,151,'VN','1 khoai tây chiên (vừa)', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f>products!$A$5</f>
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2347,13 +2727,13 @@
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,16,'VN','1 Coca', 'Y', 3);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,151,'VN','1 Coca', 'Y', 3);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f>products!$A$6</f>
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2363,13 +2743,13 @@
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,17,'VN','3 miếng gà giòn cay', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,152,'VN','3 miếng gà giòn cay', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f>products!$A$6</f>
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2379,13 +2759,13 @@
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,17,'VN','1 khoai tây chiên (vừa)', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,152,'VN','1 khoai tây chiên (vừa)', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f>products!$A$6</f>
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -2395,13 +2775,13 @@
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,17,'VN','1 Coca', 'Y', 3);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,152,'VN','1 Coca', 'Y', 3);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <f>products!$A$7</f>
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2411,13 +2791,13 @@
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,18,'VN','2 miếng gà giòn không cay', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,153,'VN','2 miếng gà giòn không cay', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <f>products!$A$7</f>
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2427,13 +2807,13 @@
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,18,'VN','1 khoai tây nghiền (vừa)', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,153,'VN','1 khoai tây nghiền (vừa)', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>products!$A$7</f>
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2443,13 +2823,13 @@
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,18,'VN','1 Coca', 'Y', 3);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,153,'VN','1 Coca', 'Y', 3);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>products!$A$8</f>
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2459,13 +2839,13 @@
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,19,'VN','3 miếng gà giòn không cay', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,154,'VN','3 miếng gà giòn không cay', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>products!$A$8</f>
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2475,13 +2855,13 @@
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,19,'VN','1 khoai tây nghiền (vừa)', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,154,'VN','1 khoai tây nghiền (vừa)', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>products!$A$8</f>
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2491,13 +2871,13 @@
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,19,'VN','1 Coca', 'Y', 3);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,154,'VN','1 Coca', 'Y', 3);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>products!$A$9</f>
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2507,13 +2887,13 @@
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,20,'VN','1 burger gà Cajun/Creole', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,155,'VN','1 burger gà Cajun/Creole', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <f>products!$A$9</f>
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -2523,29 +2903,29 @@
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,20,'VN','1 phần khoai tây chiên (vừa)', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,155,'VN','1 phần khoai tây chiên (vừa)', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <f>products!$A$9</f>
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,20,'VN','1 Coca ', 'Y', 3);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,155,'VN','1 Coca ', 'Y', 3);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>products!$A$10</f>
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2555,13 +2935,13 @@
       </c>
       <c r="D27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,21,'VN','1 Burger Gà', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,156,'VN','1 Burger Gà', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>products!$A$11</f>
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2571,13 +2951,13 @@
       </c>
       <c r="D28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,22,'VN','1 Burger Tôm', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,157,'VN','1 Burger Tôm', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>products!$A$11</f>
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2587,29 +2967,29 @@
       </c>
       <c r="D29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,22,'VN','1 phần khoai tây chiên (vừa)', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,157,'VN','1 phần khoai tây chiên (vừa)', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>products!$A$11</f>
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,22,'VN','1 Coca ', 'Y', 3);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,157,'VN','1 Coca ', 'Y', 3);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>products!$A$12</f>
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2619,13 +2999,13 @@
       </c>
       <c r="D31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,23,'VN','1 Burger Tôm', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,158,'VN','1 Burger Tôm', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>products!$A$13</f>
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2635,13 +3015,13 @@
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,24,'VN','1 Burger Cá Cajun', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,159,'VN','1 Burger Cá Cajun', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <f>products!$A$13</f>
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2651,29 +3031,29 @@
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,24,'VN','1 khoai tây chiên (vừa)', 'Y', 2);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,159,'VN','1 khoai tây chiên (vừa)', 'Y', 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <f>products!$A$13</f>
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,24,'VN','1 Coca ', 'Y', 3);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,159,'VN','1 Coca ', 'Y', 3);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <f>products!$A$14</f>
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2683,13 +3063,13 @@
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,25,'VN','1 Burger Cá Cajun', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,160,'VN','1 Burger Cá Cajun', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <f>products!$A$15</f>
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2699,13 +3079,13 @@
       </c>
       <c r="D36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,26,'VN','Mềm dẻo đặc biệt, lựa chọn hoàn hảo để bạn tận hưởng một bữa ăn Popeyes tuyệt vời. ', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,161,'VN','Mềm dẻo đặc biệt, lựa chọn hoàn hảo để bạn tận hưởng một bữa ăn Popeyes tuyệt vời. ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <f>products!$A$16</f>
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2715,13 +3095,13 @@
       </c>
       <c r="D37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,27,'VN','Khoai tây nghiền mang 100% hương vị Cajun với hỗn hợp gia vị đặc biệt từ Louisiana ', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,162,'VN','Khoai tây nghiền mang 100% hương vị Cajun với hỗn hợp gia vị đặc biệt từ Louisiana ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <f>products!$A$17</f>
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2731,13 +3111,13 @@
       </c>
       <c r="D38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,28,'VN','Khoai tây chiên mang 100% hương vị Cajun với hỗn hợp gia vị đặc biệt từ Louisiana ', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,163,'VN','Khoai tây chiên mang 100% hương vị Cajun với hỗn hợp gia vị đặc biệt từ Louisiana ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <f>products!$A$18</f>
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2747,13 +3127,13 @@
       </c>
       <c r="D39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,29,'VN','1 Canh súp', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,164,'VN','1 Canh súp', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <f>products!$A$19</f>
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2763,13 +3143,13 @@
       </c>
       <c r="D40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,30,'VN','4 miếng Snack Cá ', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,165,'VN','4 miếng Snack Cá ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <f>products!$A$20</f>
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2779,13 +3159,13 @@
       </c>
       <c r="D41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,31,'VN','4 miếng Snack Mực ', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,166,'VN','4 miếng Snack Mực ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <f>products!$A$21</f>
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2795,13 +3175,13 @@
       </c>
       <c r="D42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,32,'VN','Bánh Tart Phô Mai ', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,167,'VN','Bánh Tart Phô Mai ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <f>products!$A$22</f>
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2811,13 +3191,13 @@
       </c>
       <c r="D43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,33,'VN','Uống thả ga khi dùng tại nhà hàng ', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,168,'VN','Uống thả ga khi dùng tại nhà hàng ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <f>products!$A$23</f>
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2827,13 +3207,13 @@
       </c>
       <c r="D44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,34,'VN','Uống thả ga khi dùng tại nhà hàng ', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,169,'VN','Uống thả ga khi dùng tại nhà hàng ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <f>products!$A$24</f>
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2843,13 +3223,13 @@
       </c>
       <c r="D45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,35,'VN','Uống thả ga khi dùng tại nhà hàng ', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,170,'VN','Uống thả ga khi dùng tại nhà hàng ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <f>products!$A$25</f>
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2859,13 +3239,13 @@
       </c>
       <c r="D46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,36,'VN','Nước khoáng tinh khiết Dasani', 'Y', 1);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,171,'VN','Nước khoáng tinh khiết Dasani', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <f>products!$A$26</f>
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2875,11 +3255,274 @@
       </c>
       <c r="D47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,37,'VN','Milo', 'Y', 1);</v>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,172,'VN','Milo', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <f>products!$A$27</f>
+        <v>173</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,173,'VN','Gà giòn Cajun tươi mới được ướp với công thức gia vị Louisiana cay tẩm bột thủ công và rán chín cùng lớp phủ giòn tan', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <f>products!$A$28</f>
+        <v>174</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,174,'VN','Gà giòn Cajun tươi mới được ướp với công thức gia vị Louisiana không cay, tẩm bột thủ công và rán chín cùng lớp phủ giòn tan', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <f>products!$A$29</f>
+        <v>175</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,175,'VN','Khoai tây chiên mang 100% hương vị Cajun với hỗn hợp gia vị đặc biệt từ Louisiana ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <f>products!$A$30</f>
+        <v>176</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,176,'VN','1 Burger Gà ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <f>products!$A$31</f>
+        <v>177</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,177,'VN','4 miếng Snack Cá ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <f>products!$A$32</f>
+        <v>178</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,178,'VN','4 miếng Snack Mực ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <f>products!$A$33</f>
+        <v>295</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,295,'VN','Mua Combo 2 Gà Giòn + Nước tặng 2 Gà Giòn', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <f>products!$A$34</f>
+        <v>296</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,296,'VN','Mua 3 Gà giòn + Nước tặng 3 Gà Giòn ', 'Y', 1);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588706BE-FB77-421C-AD06-D7E480318C4B}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>-10</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>91000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-11</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>127000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C038EB3B-2CA7-4EE3-A00F-62FBF545CA42}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>-10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/web-project/public/pfc_project_update_data_2.xlsx
+++ b/web-project/public/pfc_project_update_data_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Techmaster\web-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ECAF4A-7C24-49AB-9E13-1B7704E06FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2AFAE6-2842-427F-92DA-4EC0D3F3442C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{93450A70-3400-49CE-944F-CD4AC0D9D9C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{93450A70-3400-49CE-944F-CD4AC0D9D9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="152">
   <si>
     <t>productId</t>
   </si>
@@ -455,6 +455,45 @@
   </si>
   <si>
     <t>Khuyến mại</t>
+  </si>
+  <si>
+    <t>Combo cơm</t>
+  </si>
+  <si>
+    <t>/main-menu/combo-com.png</t>
+  </si>
+  <si>
+    <t>COMBO CƠM C1</t>
+  </si>
+  <si>
+    <t>COMBO CƠM C2</t>
+  </si>
+  <si>
+    <t>COMBO CƠM C3</t>
+  </si>
+  <si>
+    <t>/detail-menu/combo-com/combo-1.jpg</t>
+  </si>
+  <si>
+    <t>/detail-menu/combo-com/combo-3.jpg</t>
+  </si>
+  <si>
+    <t>/detail-menu/combo-com/combo-2.jpg</t>
+  </si>
+  <si>
+    <t>Cơm sốt BBQ</t>
+  </si>
+  <si>
+    <t>1 miếng gà giòn cay/không cay</t>
+  </si>
+  <si>
+    <t>2 miếng gà giòn không xương</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 canh soup</t>
+  </si>
+  <si>
+    <t>1 canh soup</t>
   </si>
 </sst>
 </file>
@@ -908,12 +947,12 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -921,12 +960,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -934,7 +973,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -942,7 +981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -950,7 +989,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -958,7 +997,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -966,7 +1005,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -974,7 +1013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -982,7 +1021,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1000,23 +1039,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A654801-F890-465C-B545-F3A335D99422}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1039,7 +1078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>134</v>
       </c>
@@ -1065,7 +1104,7 @@
         <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,134,'VN','Hamburger');</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>135</v>
       </c>
@@ -1091,7 +1130,7 @@
         <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,135,'VN','Gà giòn cay');</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>136</v>
       </c>
@@ -1117,7 +1156,7 @@
         <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,136,'VN','Gà giòn không cay');</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>137</v>
       </c>
@@ -1143,7 +1182,7 @@
         <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,137,'VN','Gà giòn không xương');</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>138</v>
       </c>
@@ -1169,7 +1208,7 @@
         <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,138,'VN','Món ăn kèm');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>139</v>
       </c>
@@ -1195,7 +1234,7 @@
         <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,139,'VN','Thức uống - Tráng miệng');</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>140</v>
       </c>
@@ -1213,15 +1252,15 @@
         <v>http://phungmaianh.ddns.net/pfc/image/main-menu/mon-le.png</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" ref="F8:F9" si="2">"Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'" &amp; B8 &amp; "','" &amp; E8 &amp; "','Y'," &amp; C8 &amp; ");"</f>
+        <f t="shared" ref="F8:F10" si="2">"Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'" &amp; B8 &amp; "','" &amp; E8 &amp; "','Y'," &amp; C8 &amp; ");"</f>
         <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Món lẻ','http://phungmaianh.ddns.net/pfc/image/main-menu/mon-le.png','Y',6);</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" ref="G8:G9" si="3">"Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval," &amp; A8 &amp; ",'VN','" &amp; B8 &amp; "');"</f>
+        <f t="shared" ref="G8:G10" si="3">"Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval," &amp; A8 &amp; ",'VN','" &amp; B8 &amp; "');"</f>
         <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,140,'VN','Món lẻ');</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>293</v>
       </c>
@@ -1238,6 +1277,28 @@
       <c r="G9" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,293,'VN','Khuyến mại');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Insert into CATEGORY (ID,DESCRIPTION,IMAGE_URL,IS_ACTIVE,POINT) values (HIBERNATE_SEQUENCE.nextval,'Combo cơm','','Y',8);</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Insert into CATEGORY_DESC (ID,CATEGORY_ID,LANGUAGE,TEXT) values (HIBERNATE_SEQUENCE.nextval,141,'VN','Combo cơm');</v>
       </c>
     </row>
   </sheetData>
@@ -1248,24 +1309,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA67B4D5-716A-4309-8076-DE626F25942E}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="4"/>
-    <col min="2" max="2" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="31" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1358,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>148</v>
       </c>
@@ -1334,7 +1395,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,148,75000,'VND');</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>149</v>
       </c>
@@ -1371,7 +1432,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,149,69000,'VND');</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>150</v>
       </c>
@@ -1408,7 +1469,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,150,89000,'VND');</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>151</v>
       </c>
@@ -1445,7 +1506,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,151,84000,'VND');</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>152</v>
       </c>
@@ -1482,7 +1543,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,152,115000,'VND');</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>153</v>
       </c>
@@ -1519,7 +1580,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,153,84000,'VND');</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>154</v>
       </c>
@@ -1556,7 +1617,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,154,115000,'VND');</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>155</v>
       </c>
@@ -1593,7 +1654,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,155,72000,'VND');</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>156</v>
       </c>
@@ -1630,7 +1691,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,156,54000,'VND');</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>157</v>
       </c>
@@ -1667,7 +1728,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,157,63000,'VND');</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>158</v>
       </c>
@@ -1704,7 +1765,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,158,42000,'VND');</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>159</v>
       </c>
@@ -1741,7 +1802,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,159,72000,'VND');</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>160</v>
       </c>
@@ -1778,7 +1839,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,160,45000,'VND');</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>161</v>
       </c>
@@ -1815,7 +1876,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,161,10000,'VND');</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>162</v>
       </c>
@@ -1852,7 +1913,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,162,19000,'VND');</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>163</v>
       </c>
@@ -1889,7 +1950,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,163,29000,'VND');</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>164</v>
       </c>
@@ -1926,7 +1987,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,164,10000,'VND');</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>165</v>
       </c>
@@ -1963,7 +2024,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,165,34000,'VND');</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>166</v>
       </c>
@@ -2000,7 +2061,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,166,39000,'VND');</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>167</v>
       </c>
@@ -2037,7 +2098,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,167,21000,'VND');</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>168</v>
       </c>
@@ -2074,7 +2135,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,168,19000,'VND');</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>169</v>
       </c>
@@ -2111,7 +2172,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,169,19000,'VND');</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>170</v>
       </c>
@@ -2148,7 +2209,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,170,19000,'VND');</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>171</v>
       </c>
@@ -2185,7 +2246,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,171,19000,'VND');</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>172</v>
       </c>
@@ -2222,7 +2283,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,172,20000,'VND');</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>173</v>
       </c>
@@ -2255,7 +2316,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,173,36000,'VND');</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>174</v>
       </c>
@@ -2288,7 +2349,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,174,36000,'VND');</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>175</v>
       </c>
@@ -2321,7 +2382,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,175,29000,'VND');</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>176</v>
       </c>
@@ -2354,7 +2415,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,176,54000,'VND');</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>177</v>
       </c>
@@ -2387,7 +2448,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,177,34000,'VND');</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>178</v>
       </c>
@@ -2420,7 +2481,7 @@
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,178,39000,'VND');</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>295</v>
       </c>
@@ -2449,11 +2510,11 @@
         <v>Insert into PRODUCT_DESC (ID,PRODUCT_ID,LANGUAGE,DESC_TYPE,TEXT) values (HIBERNATE_SEQUENCE.nextval,295,'VN','BRIEF','MUA 1 TẶNG 1 - 2 MIẾNG GÀ');</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" ref="J33:J34" si="5">"Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval," &amp; A33 &amp; "," &amp; E33 &amp; ",'VND');"</f>
+        <f t="shared" ref="J33:J37" si="5">"Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval," &amp; A33 &amp; "," &amp; E33 &amp; ",'VND');"</f>
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,295,91000,'VND');</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>296</v>
       </c>
@@ -2484,6 +2545,78 @@
       <c r="J34" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,296,127000,'VND');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>179</v>
+      </c>
+      <c r="B35" s="5">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>39000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,179,39000,'VND');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>180</v>
+      </c>
+      <c r="B36" s="5">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>39000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,180,39000,'VND');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>181</v>
+      </c>
+      <c r="B37" s="5">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>45000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>145</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Insert into PRODUCT_PRICE (ID,PRODUCT_ID,PRICE,CURRENCY_UNIT) values (HIBERNATE_SEQUENCE.nextval,181,45000,'VND');</v>
       </c>
     </row>
   </sheetData>
@@ -2494,21 +2627,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2E59FE-1C09-4F0B-BFC9-F354267AA205}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2655,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>products!$A$2</f>
         <v>148</v>
@@ -2538,7 +2671,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,148,'VN','5 miếng gà không xương', 'Y', 1);</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>products!$A$2</f>
         <v>148</v>
@@ -2554,7 +2687,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,148,'VN','1 chén sốt blackended/spicy mayo', 'Y', 2);</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>products!$A$3</f>
         <v>149</v>
@@ -2570,7 +2703,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,149,'VN','3 miếng gà giòn không xương', 'Y', 1);</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>products!$A$3</f>
         <v>149</v>
@@ -2586,7 +2719,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,149,'VN','1 phần bắp cải trộn (vừa)', 'Y', 2);</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>products!$A$3</f>
         <v>149</v>
@@ -2602,7 +2735,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,149,'VN','1 sốt chấm tự chọn (Blackened ranch/Spicy mayo) ', 'Y', 3);</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>products!$A$3</f>
         <v>149</v>
@@ -2618,7 +2751,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,149,'VN','1 coca', 'Y', 4);</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>products!$A$4</f>
         <v>150</v>
@@ -2634,7 +2767,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,150,'VN','5 miếng gà giòn không xương', 'Y', 1);</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>products!$A$4</f>
         <v>150</v>
@@ -2650,7 +2783,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,150,'VN','1 phần bắp cải trộn (vừa)', 'Y', 2);</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>products!$A$4</f>
         <v>150</v>
@@ -2666,7 +2799,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,150,'VN','1 sốt chấm tự chọn (blackended ranch/ spicy mayo)', 'Y', 3);</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>products!$A$4</f>
         <v>150</v>
@@ -2682,7 +2815,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,150,'VN','1 coca', 'Y', 4);</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>products!$A$5</f>
         <v>151</v>
@@ -2698,7 +2831,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,151,'VN','2 miếng gà giòn cay', 'Y', 1);</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>products!$A$5</f>
         <v>151</v>
@@ -2714,7 +2847,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,151,'VN','1 khoai tây chiên (vừa)', 'Y', 2);</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>products!$A$5</f>
         <v>151</v>
@@ -2730,7 +2863,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,151,'VN','1 Coca', 'Y', 3);</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>products!$A$6</f>
         <v>152</v>
@@ -2746,7 +2879,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,152,'VN','3 miếng gà giòn cay', 'Y', 1);</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>products!$A$6</f>
         <v>152</v>
@@ -2762,7 +2895,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,152,'VN','1 khoai tây chiên (vừa)', 'Y', 2);</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>products!$A$6</f>
         <v>152</v>
@@ -2778,7 +2911,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,152,'VN','1 Coca', 'Y', 3);</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>products!$A$7</f>
         <v>153</v>
@@ -2794,7 +2927,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,153,'VN','2 miếng gà giòn không cay', 'Y', 1);</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>products!$A$7</f>
         <v>153</v>
@@ -2810,7 +2943,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,153,'VN','1 khoai tây nghiền (vừa)', 'Y', 2);</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>products!$A$7</f>
         <v>153</v>
@@ -2826,7 +2959,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,153,'VN','1 Coca', 'Y', 3);</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>products!$A$8</f>
         <v>154</v>
@@ -2842,7 +2975,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,154,'VN','3 miếng gà giòn không cay', 'Y', 1);</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>products!$A$8</f>
         <v>154</v>
@@ -2858,7 +2991,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,154,'VN','1 khoai tây nghiền (vừa)', 'Y', 2);</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>products!$A$8</f>
         <v>154</v>
@@ -2874,7 +3007,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,154,'VN','1 Coca', 'Y', 3);</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>products!$A$9</f>
         <v>155</v>
@@ -2890,7 +3023,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,155,'VN','1 burger gà Cajun/Creole', 'Y', 1);</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>products!$A$9</f>
         <v>155</v>
@@ -2906,7 +3039,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,155,'VN','1 phần khoai tây chiên (vừa)', 'Y', 2);</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>products!$A$9</f>
         <v>155</v>
@@ -2922,7 +3055,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,155,'VN','1 Coca ', 'Y', 3);</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>products!$A$10</f>
         <v>156</v>
@@ -2938,7 +3071,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,156,'VN','1 Burger Gà', 'Y', 1);</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>products!$A$11</f>
         <v>157</v>
@@ -2954,7 +3087,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,157,'VN','1 Burger Tôm', 'Y', 1);</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>products!$A$11</f>
         <v>157</v>
@@ -2970,7 +3103,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,157,'VN','1 phần khoai tây chiên (vừa)', 'Y', 2);</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>products!$A$11</f>
         <v>157</v>
@@ -2986,7 +3119,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,157,'VN','1 Coca ', 'Y', 3);</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>products!$A$12</f>
         <v>158</v>
@@ -3002,7 +3135,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,158,'VN','1 Burger Tôm', 'Y', 1);</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>products!$A$13</f>
         <v>159</v>
@@ -3018,7 +3151,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,159,'VN','1 Burger Cá Cajun', 'Y', 1);</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f>products!$A$13</f>
         <v>159</v>
@@ -3034,7 +3167,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,159,'VN','1 khoai tây chiên (vừa)', 'Y', 2);</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f>products!$A$13</f>
         <v>159</v>
@@ -3050,7 +3183,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,159,'VN','1 Coca ', 'Y', 3);</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f>products!$A$14</f>
         <v>160</v>
@@ -3066,7 +3199,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,160,'VN','1 Burger Cá Cajun', 'Y', 1);</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f>products!$A$15</f>
         <v>161</v>
@@ -3082,7 +3215,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,161,'VN','Mềm dẻo đặc biệt, lựa chọn hoàn hảo để bạn tận hưởng một bữa ăn Popeyes tuyệt vời. ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f>products!$A$16</f>
         <v>162</v>
@@ -3098,7 +3231,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,162,'VN','Khoai tây nghiền mang 100% hương vị Cajun với hỗn hợp gia vị đặc biệt từ Louisiana ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f>products!$A$17</f>
         <v>163</v>
@@ -3114,7 +3247,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,163,'VN','Khoai tây chiên mang 100% hương vị Cajun với hỗn hợp gia vị đặc biệt từ Louisiana ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f>products!$A$18</f>
         <v>164</v>
@@ -3130,7 +3263,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,164,'VN','1 Canh súp', 'Y', 1);</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f>products!$A$19</f>
         <v>165</v>
@@ -3146,7 +3279,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,165,'VN','4 miếng Snack Cá ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f>products!$A$20</f>
         <v>166</v>
@@ -3162,7 +3295,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,166,'VN','4 miếng Snack Mực ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f>products!$A$21</f>
         <v>167</v>
@@ -3178,7 +3311,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,167,'VN','Bánh Tart Phô Mai ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f>products!$A$22</f>
         <v>168</v>
@@ -3194,7 +3327,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,168,'VN','Uống thả ga khi dùng tại nhà hàng ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f>products!$A$23</f>
         <v>169</v>
@@ -3210,7 +3343,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,169,'VN','Uống thả ga khi dùng tại nhà hàng ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f>products!$A$24</f>
         <v>170</v>
@@ -3226,7 +3359,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,170,'VN','Uống thả ga khi dùng tại nhà hàng ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f>products!$A$25</f>
         <v>171</v>
@@ -3242,7 +3375,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,171,'VN','Nước khoáng tinh khiết Dasani', 'Y', 1);</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f>products!$A$26</f>
         <v>172</v>
@@ -3258,7 +3391,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,172,'VN','Milo', 'Y', 1);</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f>products!$A$27</f>
         <v>173</v>
@@ -3274,7 +3407,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,173,'VN','Gà giòn Cajun tươi mới được ướp với công thức gia vị Louisiana cay tẩm bột thủ công và rán chín cùng lớp phủ giòn tan', 'Y', 1);</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f>products!$A$28</f>
         <v>174</v>
@@ -3290,7 +3423,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,174,'VN','Gà giòn Cajun tươi mới được ướp với công thức gia vị Louisiana không cay, tẩm bột thủ công và rán chín cùng lớp phủ giòn tan', 'Y', 1);</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f>products!$A$29</f>
         <v>175</v>
@@ -3306,7 +3439,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,175,'VN','Khoai tây chiên mang 100% hương vị Cajun với hỗn hợp gia vị đặc biệt từ Louisiana ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <f>products!$A$30</f>
         <v>176</v>
@@ -3322,7 +3455,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,176,'VN','1 Burger Gà ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <f>products!$A$31</f>
         <v>177</v>
@@ -3338,7 +3471,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,177,'VN','4 miếng Snack Cá ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <f>products!$A$32</f>
         <v>178</v>
@@ -3354,7 +3487,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,178,'VN','4 miếng Snack Mực ', 'Y', 1);</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <f>products!$A$33</f>
         <v>295</v>
@@ -3370,7 +3503,7 @@
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,295,'VN','Mua Combo 2 Gà Giòn + Nước tặng 2 Gà Giòn', 'Y', 1);</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <f>products!$A$34</f>
         <v>296</v>
@@ -3384,6 +3517,94 @@
       <c r="D55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Insert into PRODUCT_UNIT (ID,PRODUCT_ID,LANGUAGE,TEXT, IS_ACTIVE, POINT) values (HIBERNATE_SEQUENCE.nextval,296,'VN','Mua 3 Gà giòn + Nước tặng 3 Gà Giòn ', 'Y', 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>179</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>179</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>180</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>180</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>181</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>181</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>181</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3400,17 +3621,17 @@
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3430,7 +3651,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-10</v>
       </c>
@@ -3450,7 +3671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-11</v>
       </c>
@@ -3483,13 +3704,13 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.26953125" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3500,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-10</v>
       </c>
@@ -3511,7 +3732,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-11</v>
       </c>
